--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125141a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125141a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.638107827804373</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.75958473227085</v>
+      </c>
+      <c r="C5">
+        <v>1.836261938886217</v>
+      </c>
+      <c r="D5">
+        <v>1.841043475299127</v>
+      </c>
+      <c r="E5">
+        <v>4.732997915511568</v>
+      </c>
+      <c r="F5">
+        <v>2.658341722495608</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1.75958473227085</v>
+        <v>4.969856256810918</v>
       </c>
       <c r="C6">
-        <v>1.836261938886217</v>
+        <v>5.297486845648189</v>
       </c>
       <c r="D6">
-        <v>1.841043475299127</v>
+        <v>5.316340191157653</v>
       </c>
       <c r="E6">
-        <v>4.732997915511568</v>
+        <v>22.66663676788428</v>
       </c>
       <c r="F6">
-        <v>2.658341722495608</v>
+        <v>8.50053026961298</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>4.969856256810918</v>
+        <v>4.246214901460063</v>
       </c>
       <c r="C7">
-        <v>5.297486845648189</v>
+        <v>4.406422650522327</v>
       </c>
       <c r="D7">
-        <v>5.316340191157653</v>
+        <v>4.463845393016666</v>
       </c>
       <c r="E7">
-        <v>22.66663676788428</v>
+        <v>10.90091488359928</v>
       </c>
       <c r="F7">
-        <v>8.50053026961298</v>
+        <v>5.926447215397633</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>9.382091137964824</v>
+      </c>
+      <c r="C8">
+        <v>9.810115884621078</v>
+      </c>
+      <c r="D8">
+        <v>10.37533250120017</v>
+      </c>
+      <c r="E8">
+        <v>29.29168869522014</v>
+      </c>
+      <c r="F8">
+        <v>12.79273628365774</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>4.246214901460063</v>
+        <v>10.25094130198413</v>
       </c>
       <c r="C9">
-        <v>4.406422650522327</v>
+        <v>9.068785229578712</v>
       </c>
       <c r="D9">
-        <v>4.463845393016666</v>
+        <v>7.645380184698519</v>
       </c>
       <c r="E9">
-        <v>10.90091488359928</v>
+        <v>53.55136267171137</v>
       </c>
       <c r="F9">
-        <v>5.926447215397633</v>
+        <v>17.72991748214781</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>9.382091137964824</v>
+        <v>11.6178157490132</v>
       </c>
       <c r="C10">
-        <v>9.810115884621078</v>
+        <v>12.05291907783291</v>
       </c>
       <c r="D10">
-        <v>10.37533250120017</v>
+        <v>11.9020146420387</v>
       </c>
       <c r="E10">
-        <v>29.29168869522014</v>
+        <v>24.50967146847762</v>
       </c>
       <c r="F10">
-        <v>12.79273628365774</v>
+        <v>16.22077961931083</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>10.25094130198413</v>
+        <v>10.37050228768565</v>
       </c>
       <c r="C11">
-        <v>9.068785229578712</v>
+        <v>10.92556753782986</v>
       </c>
       <c r="D11">
-        <v>7.645380184698519</v>
+        <v>10.81751565667062</v>
       </c>
       <c r="E11">
-        <v>53.55136267171137</v>
+        <v>33.39775281250627</v>
       </c>
       <c r="F11">
-        <v>17.72991748214781</v>
+        <v>17.07653886955771</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>11.6178157490132</v>
+        <v>7.41193131675433</v>
       </c>
       <c r="C12">
-        <v>12.05291907783291</v>
+        <v>7.684280684001523</v>
       </c>
       <c r="D12">
-        <v>11.9020146420387</v>
+        <v>7.805122547308383</v>
       </c>
       <c r="E12">
-        <v>24.50967146847762</v>
+        <v>17.90739891518472</v>
       </c>
       <c r="F12">
-        <v>16.22077961931083</v>
+        <v>10.1549997175946</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>10.37050228768565</v>
+        <v>13.62597002866928</v>
       </c>
       <c r="C13">
-        <v>10.92556753782986</v>
+        <v>14.92011122208629</v>
       </c>
       <c r="D13">
-        <v>10.81751565667062</v>
+        <v>14.79135462093399</v>
       </c>
       <c r="E13">
-        <v>33.39775281250627</v>
+        <v>39.7194007176053</v>
       </c>
       <c r="F13">
-        <v>17.07653886955771</v>
+        <v>20.1249234590437</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>7.41193131675433</v>
+        <v>11.58666592259684</v>
       </c>
       <c r="C14">
-        <v>7.684280684001523</v>
+        <v>12.52308777426586</v>
       </c>
       <c r="D14">
-        <v>7.805122547308383</v>
+        <v>13.2929569107579</v>
       </c>
       <c r="E14">
-        <v>17.90739891518472</v>
+        <v>26.35884857407016</v>
       </c>
       <c r="F14">
-        <v>10.1549997175946</v>
+        <v>13.01147211808557</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>13.62597002866928</v>
+        <v>3.931747589445676</v>
       </c>
       <c r="C15">
-        <v>14.92011122208629</v>
+        <v>4.046526981453423</v>
       </c>
       <c r="D15">
-        <v>14.79135462093399</v>
+        <v>4.150912994300292</v>
       </c>
       <c r="E15">
-        <v>39.7194007176053</v>
+        <v>7.836720838691634</v>
       </c>
       <c r="F15">
-        <v>20.1249234590437</v>
+        <v>5.66518830985995</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>11.58666592259684</v>
+        <v>18.22064643945687</v>
       </c>
       <c r="C16">
-        <v>12.52308777426586</v>
+        <v>19.1757174442598</v>
       </c>
       <c r="D16">
-        <v>13.2929569107579</v>
+        <v>19.56261651156165</v>
       </c>
       <c r="E16">
-        <v>26.35884857407016</v>
+        <v>29.01754989314153</v>
       </c>
       <c r="F16">
-        <v>13.01147211808557</v>
+        <v>22.6780516411033</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>3.931747589445676</v>
+        <v>13.24861858698746</v>
       </c>
       <c r="C17">
-        <v>4.046526981453423</v>
+        <v>11.85219064871222</v>
       </c>
       <c r="D17">
-        <v>4.150912994300292</v>
+        <v>12.19646067793308</v>
       </c>
       <c r="E17">
-        <v>7.836720838691634</v>
+        <v>58.19498952039808</v>
       </c>
       <c r="F17">
-        <v>5.66518830985995</v>
+        <v>21.67334208011337</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>18.22064643945687</v>
+        <v>7.062551559162407</v>
       </c>
       <c r="C18">
-        <v>19.1757174442598</v>
+        <v>7.878901048306085</v>
       </c>
       <c r="D18">
-        <v>19.56261651156165</v>
+        <v>8.070818594297606</v>
       </c>
       <c r="E18">
-        <v>29.01754989314153</v>
+        <v>15.57884107860698</v>
       </c>
       <c r="F18">
-        <v>22.6780516411033</v>
+        <v>9.29829247090691</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>13.24861858698746</v>
+        <v>10.87804457948651</v>
       </c>
       <c r="C19">
-        <v>11.85219064871222</v>
+        <v>12.22778910639498</v>
       </c>
       <c r="D19">
-        <v>12.19646067793308</v>
+        <v>12.06177965321106</v>
       </c>
       <c r="E19">
-        <v>58.19498952039808</v>
+        <v>23.20938724752446</v>
       </c>
       <c r="F19">
-        <v>21.67334208011337</v>
+        <v>14.98846307481586</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>7.062551559162407</v>
+        <v>11.57071996983264</v>
       </c>
       <c r="C20">
-        <v>7.878901048306085</v>
+        <v>12.30909959031693</v>
       </c>
       <c r="D20">
-        <v>8.070818594297606</v>
+        <v>11.90945315727518</v>
       </c>
       <c r="E20">
-        <v>15.57884107860698</v>
+        <v>31.89654662501261</v>
       </c>
       <c r="F20">
-        <v>9.29829247090691</v>
+        <v>17.16113462956</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>10.87804457948651</v>
+        <v>6.007655858071043</v>
       </c>
       <c r="C21">
-        <v>12.22778910639498</v>
+        <v>6.424822247120149</v>
       </c>
       <c r="D21">
-        <v>12.06177965321106</v>
+        <v>6.98472043687423</v>
       </c>
       <c r="E21">
-        <v>23.20938724752446</v>
+        <v>18.70266984523467</v>
       </c>
       <c r="F21">
-        <v>14.98846307481586</v>
+        <v>9.571635266915631</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>11.57071996983264</v>
+        <v>11.04112786947378</v>
       </c>
       <c r="C22">
-        <v>12.30909959031693</v>
+        <v>12.35864936196742</v>
       </c>
       <c r="D22">
-        <v>11.90945315727518</v>
+        <v>12.1127070763957</v>
       </c>
       <c r="E22">
-        <v>31.89654662501261</v>
+        <v>30.02638600631904</v>
       </c>
       <c r="F22">
-        <v>17.16113462956</v>
+        <v>18.15283749775624</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>6.007655858071043</v>
+        <v>9.408034538713478</v>
       </c>
       <c r="C23">
-        <v>6.424822247120149</v>
+        <v>10.2478142343519</v>
       </c>
       <c r="D23">
-        <v>6.98472043687423</v>
+        <v>11.07209159759146</v>
       </c>
       <c r="E23">
-        <v>18.70266984523467</v>
+        <v>28.82247446901735</v>
       </c>
       <c r="F23">
-        <v>9.571635266915631</v>
+        <v>14.29466003372045</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>11.04112786947378</v>
+        <v>5.713061498315981</v>
       </c>
       <c r="C24">
-        <v>12.35864936196742</v>
+        <v>5.966589536753748</v>
       </c>
       <c r="D24">
-        <v>12.1127070763957</v>
+        <v>5.933384826697001</v>
       </c>
       <c r="E24">
-        <v>30.02638600631904</v>
+        <v>14.43604912793592</v>
       </c>
       <c r="F24">
-        <v>18.15283749775624</v>
+        <v>8.580678976065782</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>9.408034538713478</v>
+        <v>2.80252747901296</v>
       </c>
       <c r="C25">
-        <v>10.2478142343519</v>
+        <v>2.947322799660884</v>
       </c>
       <c r="D25">
-        <v>11.07209159759146</v>
+        <v>2.913351141969094</v>
       </c>
       <c r="E25">
-        <v>28.82247446901735</v>
+        <v>8.629796595918101</v>
       </c>
       <c r="F25">
-        <v>14.29466003372045</v>
+        <v>4.283225598449528</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>5.713061498315981</v>
+        <v>4.96468699791511</v>
       </c>
       <c r="C26">
-        <v>5.966589536753748</v>
+        <v>5.136269657547335</v>
       </c>
       <c r="D26">
-        <v>5.933384826697001</v>
+        <v>5.11319603743724</v>
       </c>
       <c r="E26">
-        <v>14.43604912793592</v>
+        <v>13.79264306674805</v>
       </c>
       <c r="F26">
-        <v>8.580678976065782</v>
+        <v>7.246733375450254</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>2.80252747901296</v>
+        <v>10.31238846034986</v>
       </c>
       <c r="C27">
-        <v>2.947322799660884</v>
+        <v>10.99896278857208</v>
       </c>
       <c r="D27">
-        <v>2.913351141969094</v>
+        <v>11.57350352414335</v>
       </c>
       <c r="E27">
-        <v>8.629796595918101</v>
+        <v>27.08898973262693</v>
       </c>
       <c r="F27">
-        <v>4.283225598449528</v>
+        <v>16.20097487800937</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>4.96468699791511</v>
+        <v>5.68897545118847</v>
       </c>
       <c r="C28">
-        <v>5.136269657547335</v>
+        <v>6.422819412082672</v>
       </c>
       <c r="D28">
-        <v>5.11319603743724</v>
+        <v>6.675872446507063</v>
       </c>
       <c r="E28">
-        <v>13.79264306674805</v>
+        <v>20.63511416590276</v>
       </c>
       <c r="F28">
-        <v>7.246733375450254</v>
+        <v>8.664401646280858</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>10.31238846034986</v>
+        <v>4.233010198189796</v>
       </c>
       <c r="C29">
-        <v>10.99896278857208</v>
+        <v>4.400513271879015</v>
       </c>
       <c r="D29">
-        <v>11.57350352414335</v>
+        <v>4.303231608091092</v>
       </c>
       <c r="E29">
-        <v>27.08898973262693</v>
+        <v>12.84919065341729</v>
       </c>
       <c r="F29">
-        <v>16.20097487800937</v>
+        <v>6.774777184441625</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>5.68897545118847</v>
+        <v>3.225546767013807</v>
       </c>
       <c r="C30">
-        <v>6.422819412082672</v>
+        <v>3.372920816894126</v>
       </c>
       <c r="D30">
-        <v>6.675872446507063</v>
+        <v>3.472792317677177</v>
       </c>
       <c r="E30">
-        <v>20.63511416590276</v>
+        <v>11.67038950704915</v>
       </c>
       <c r="F30">
-        <v>8.664401646280858</v>
+        <v>5.797803165367792</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>4.233010198189796</v>
+        <v>4.689438112690009</v>
       </c>
       <c r="C31">
-        <v>4.400513271879015</v>
+        <v>4.924972108860588</v>
       </c>
       <c r="D31">
-        <v>4.303231608091092</v>
+        <v>4.948571588738656</v>
       </c>
       <c r="E31">
-        <v>12.84919065341729</v>
+        <v>17.8015819804772</v>
       </c>
       <c r="F31">
-        <v>6.774777184441625</v>
+        <v>8.946885245925507</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>3.225546767013807</v>
+        <v>7.644424391656021</v>
       </c>
       <c r="C32">
-        <v>3.372920816894126</v>
+        <v>7.529463179870067</v>
       </c>
       <c r="D32">
-        <v>3.472792317677177</v>
+        <v>7.269306923336004</v>
       </c>
       <c r="E32">
-        <v>11.67038950704915</v>
+        <v>33.00086814656995</v>
       </c>
       <c r="F32">
-        <v>5.797803165367792</v>
+        <v>13.89959676928999</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>4.689438112690009</v>
+        <v>5.246257898224242</v>
       </c>
       <c r="C33">
-        <v>4.924972108860588</v>
+        <v>5.670691829675984</v>
       </c>
       <c r="D33">
-        <v>4.948571588738656</v>
+        <v>6.139593403318527</v>
       </c>
       <c r="E33">
-        <v>17.8015819804772</v>
+        <v>17.36179577040311</v>
       </c>
       <c r="F33">
-        <v>8.946885245925507</v>
+        <v>8.986727140247929</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>7.644424391656021</v>
+        <v>3.181191043256483</v>
       </c>
       <c r="C34">
-        <v>7.529463179870067</v>
+        <v>3.473318576712704</v>
       </c>
       <c r="D34">
-        <v>7.269306923336004</v>
+        <v>3.472510504780901</v>
       </c>
       <c r="E34">
-        <v>33.00086814656995</v>
+        <v>10.17653643147463</v>
       </c>
       <c r="F34">
-        <v>13.89959676928999</v>
+        <v>5.652950097435093</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>5.246257898224242</v>
+        <v>7.280576127816124</v>
       </c>
       <c r="C35">
-        <v>5.670691829675984</v>
+        <v>7.571859096508287</v>
       </c>
       <c r="D35">
-        <v>6.139593403318527</v>
+        <v>7.431508567858607</v>
       </c>
       <c r="E35">
-        <v>17.36179577040311</v>
+        <v>22.39731282462008</v>
       </c>
       <c r="F35">
-        <v>8.986727140247929</v>
+        <v>12.03040707914377</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>3.181191043256483</v>
+        <v>7.153021906652874</v>
       </c>
       <c r="C36">
-        <v>3.473318576712704</v>
+        <v>7.932769093261523</v>
       </c>
       <c r="D36">
-        <v>3.472510504780901</v>
+        <v>8.067896240852425</v>
       </c>
       <c r="E36">
-        <v>10.17653643147463</v>
+        <v>24.8873049808304</v>
       </c>
       <c r="F36">
-        <v>5.652950097435093</v>
+        <v>10.2634451190535</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>7.280576127816124</v>
+        <v>4.894098796973535</v>
       </c>
       <c r="C37">
-        <v>7.571859096508287</v>
+        <v>5.357283610870222</v>
       </c>
       <c r="D37">
-        <v>7.431508567858607</v>
+        <v>5.316969435114944</v>
       </c>
       <c r="E37">
-        <v>22.39731282462008</v>
+        <v>16.03001325899221</v>
       </c>
       <c r="F37">
-        <v>12.03040707914377</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>7.153021906652874</v>
-      </c>
-      <c r="C38">
-        <v>7.932769093261523</v>
-      </c>
-      <c r="D38">
-        <v>8.067896240852425</v>
-      </c>
-      <c r="E38">
-        <v>24.8873049808304</v>
-      </c>
-      <c r="F38">
-        <v>10.2634451190535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>4.894098796973535</v>
-      </c>
-      <c r="C39">
-        <v>5.357283610870222</v>
-      </c>
-      <c r="D39">
-        <v>5.316969435114944</v>
-      </c>
-      <c r="E39">
-        <v>16.03001325899221</v>
-      </c>
-      <c r="F39">
         <v>10.0248926489864</v>
       </c>
     </row>
